--- a/Modelos/ORANI/Desagregação/EPS.xlsx
+++ b/Modelos/ORANI/Desagregação/EPS.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Universidade\UFPR\- Dissertação\Modelos\ORANI\Desagregação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F2E986-DB67-4340-B27A-867215601059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD89A76-DA3D-4CB9-B8A0-9E8AEE3DEEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F182B20-CD89-4DE8-B029-0A30514B8A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="EPS" sheetId="2" r:id="rId1"/>
-    <sheet name="Original" sheetId="1" r:id="rId2"/>
+    <sheet name="USR" sheetId="4" r:id="rId2"/>
+    <sheet name="NONSTOCKS" sheetId="5" r:id="rId3"/>
+    <sheet name="FRISCH" sheetId="3" r:id="rId4"/>
+    <sheet name="EPS (HH10)" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="309">
   <si>
     <t>EPS</t>
   </si>
@@ -746,6 +752,222 @@
   <si>
     <t>SCN124</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Pecuaria</t>
+  </si>
+  <si>
+    <t>PrFloPesSil</t>
+  </si>
+  <si>
+    <t>ExtCarMi</t>
+  </si>
+  <si>
+    <t>ExtPetrGas</t>
+  </si>
+  <si>
+    <t>ExtMinFerro</t>
+  </si>
+  <si>
+    <t>ExtMMetNF</t>
+  </si>
+  <si>
+    <t>AbateCarne</t>
+  </si>
+  <si>
+    <t>FabRefAcu</t>
+  </si>
+  <si>
+    <t>OutAliment</t>
+  </si>
+  <si>
+    <t>Bebidas</t>
+  </si>
+  <si>
+    <t>ProdFumo</t>
+  </si>
+  <si>
+    <t>Texteis</t>
+  </si>
+  <si>
+    <t>Vestuario</t>
+  </si>
+  <si>
+    <t>FabCCalcado</t>
+  </si>
+  <si>
+    <t>FabProdMad</t>
+  </si>
+  <si>
+    <t>FabCelPapel</t>
+  </si>
+  <si>
+    <t>ImpRGrava</t>
+  </si>
+  <si>
+    <t>RefPetCoq</t>
+  </si>
+  <si>
+    <t>FabBiocom</t>
+  </si>
+  <si>
+    <t>FabQuiOrIno</t>
+  </si>
+  <si>
+    <t>FabDDesinf</t>
+  </si>
+  <si>
+    <t>FabProdLim</t>
+  </si>
+  <si>
+    <t>FabFarmoFar</t>
+  </si>
+  <si>
+    <t>FabBorPlast</t>
+  </si>
+  <si>
+    <t>FabMinNMet</t>
+  </si>
+  <si>
+    <t>ProFerrFde</t>
+  </si>
+  <si>
+    <t>Metalurgia</t>
+  </si>
+  <si>
+    <t>FabProdMet</t>
+  </si>
+  <si>
+    <t>FabEqInform</t>
+  </si>
+  <si>
+    <t>FabMaqEqEle</t>
+  </si>
+  <si>
+    <t>FabMaqEqMec</t>
+  </si>
+  <si>
+    <t>FabAutoCam</t>
+  </si>
+  <si>
+    <t>FabPecAcVei</t>
+  </si>
+  <si>
+    <t>FabEqTransp</t>
+  </si>
+  <si>
+    <t>FabMovOutr</t>
+  </si>
+  <si>
+    <t>MRepMaqEq</t>
+  </si>
+  <si>
+    <t>EnerEleGasN</t>
+  </si>
+  <si>
+    <t>AguaEsgResid</t>
+  </si>
+  <si>
+    <t>Construcao</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Transportes</t>
+  </si>
+  <si>
+    <t>AAuxTransp</t>
+  </si>
+  <si>
+    <t>Alojamento</t>
+  </si>
+  <si>
+    <t>Alimentacao</t>
+  </si>
+  <si>
+    <t>EdIntImpres</t>
+  </si>
+  <si>
+    <t>AtiTVRadio</t>
+  </si>
+  <si>
+    <t>Telecomun</t>
+  </si>
+  <si>
+    <t>DesenSisInf</t>
+  </si>
+  <si>
+    <t>IntFinSegPr</t>
+  </si>
+  <si>
+    <t>AtivImobili</t>
+  </si>
+  <si>
+    <t>AtiConCons</t>
+  </si>
+  <si>
+    <t>SerArqEng</t>
+  </si>
+  <si>
+    <t>OutProfCien</t>
+  </si>
+  <si>
+    <t>Alugueis</t>
+  </si>
+  <si>
+    <t>OutAtivAdm</t>
+  </si>
+  <si>
+    <t>AtiVigSegInv</t>
+  </si>
+  <si>
+    <t>AdmPublica</t>
+  </si>
+  <si>
+    <t>EducPublica</t>
+  </si>
+  <si>
+    <t>EducPrivada</t>
+  </si>
+  <si>
+    <t>SauPublica</t>
+  </si>
+  <si>
+    <t>SauPrivada</t>
+  </si>
+  <si>
+    <t>AtivArtCria</t>
+  </si>
+  <si>
+    <t>OrganAssos</t>
+  </si>
+  <si>
+    <t>ServDomes</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Gov</t>
+  </si>
+  <si>
+    <t>ISFLSF</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
 </sst>
 </file>
 
@@ -897,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -929,6 +1151,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5AB66F-743F-4452-92CA-6704EE230A06}">
-  <dimension ref="B1:CX129"/>
+  <dimension ref="A1:CZ129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -1253,12 +1479,16 @@
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="8.88671875" style="1" customWidth="1"/>
-    <col min="14" max="103" width="8.88671875" customWidth="1"/>
-    <col min="104" max="16384" width="8.88671875" hidden="1"/>
+    <col min="14" max="102" width="8.88671875" customWidth="1"/>
+    <col min="103" max="103" width="11.109375" customWidth="1"/>
+    <col min="104" max="104" width="8.88671875" customWidth="1"/>
+    <col min="105" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:102" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:103" x14ac:dyDescent="0.3">
+      <c r="CY1" s="12"/>
+    </row>
+    <row r="2" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>236</v>
       </c>
@@ -1562,8 +1792,11 @@
       <c r="CX2" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY2" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1867,8 +2100,12 @@
       <c r="CX3" s="7">
         <v>0.2873</v>
       </c>
-    </row>
-    <row r="4" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY3" s="1">
+        <f>SUM(C3:CX3)</f>
+        <v>30.215000000000025</v>
+      </c>
+    </row>
+    <row r="4" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2172,8 +2409,12 @@
       <c r="CX4" s="7">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY4" s="1">
+        <f t="shared" ref="CY4:CY67" si="0">SUM(C4:CX4)</f>
+        <v>37.027999999999963</v>
+      </c>
+    </row>
+    <row r="5" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2477,8 +2718,12 @@
       <c r="CX5" s="7">
         <v>0.81379999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY5" s="1">
+        <f t="shared" si="0"/>
+        <v>85.600999999999971</v>
+      </c>
+    </row>
+    <row r="6" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2782,8 +3027,12 @@
       <c r="CX6" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY6" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3087,8 +3336,12 @@
       <c r="CX7" s="7">
         <v>0.35199999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY7" s="1">
+        <f t="shared" si="0"/>
+        <v>37.027999999999963</v>
+      </c>
+    </row>
+    <row r="8" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -3392,8 +3645,12 @@
       <c r="CX8" s="7">
         <v>0.5857</v>
       </c>
-    </row>
-    <row r="9" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY8" s="1">
+        <f t="shared" si="0"/>
+        <v>61.606000000000058</v>
+      </c>
+    </row>
+    <row r="9" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -3697,8 +3954,12 @@
       <c r="CX9" s="7">
         <v>0.5857</v>
       </c>
-    </row>
-    <row r="10" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY9" s="1">
+        <f t="shared" si="0"/>
+        <v>61.606000000000058</v>
+      </c>
+    </row>
+    <row r="10" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -4002,8 +4263,12 @@
       <c r="CX10" s="7">
         <v>1.2670999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY10" s="1">
+        <f t="shared" si="0"/>
+        <v>133.28300000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -4307,8 +4572,12 @@
       <c r="CX11" s="7">
         <v>0.5857</v>
       </c>
-    </row>
-    <row r="12" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY11" s="1">
+        <f t="shared" si="0"/>
+        <v>61.606000000000058</v>
+      </c>
+    </row>
+    <row r="12" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -4612,8 +4881,12 @@
       <c r="CX12" s="7">
         <v>1.1615</v>
       </c>
-    </row>
-    <row r="13" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY12" s="1">
+        <f t="shared" si="0"/>
+        <v>122.17800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4917,8 +5190,12 @@
       <c r="CX13" s="7">
         <v>1.0799000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY13" s="1">
+        <f t="shared" si="0"/>
+        <v>113.5899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -5222,8 +5499,12 @@
       <c r="CX14" s="7">
         <v>0.97850000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY14" s="1">
+        <f t="shared" si="0"/>
+        <v>102.92599999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -5527,8 +5808,12 @@
       <c r="CX15" s="7">
         <v>0.40970000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY15" s="1">
+        <f t="shared" si="0"/>
+        <v>43.095999999999989</v>
+      </c>
+    </row>
+    <row r="16" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
@@ -5832,8 +6117,12 @@
       <c r="CX16" s="7">
         <v>0.92920000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY16" s="1">
+        <f t="shared" si="0"/>
+        <v>97.740999999999971</v>
+      </c>
+    </row>
+    <row r="17" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
@@ -6137,8 +6426,12 @@
       <c r="CX17" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY17" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -6442,8 +6735,12 @@
       <c r="CX18" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY18" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
@@ -6747,8 +7044,12 @@
       <c r="CX19" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY19" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="20" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
@@ -7052,8 +7353,12 @@
       <c r="CX20" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY20" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="21" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
@@ -7357,8 +7662,12 @@
       <c r="CX21" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY21" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
@@ -7662,8 +7971,12 @@
       <c r="CX22" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY22" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
@@ -7967,8 +8280,12 @@
       <c r="CX23" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY23" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="24" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
@@ -8272,8 +8589,12 @@
       <c r="CX24" s="7">
         <v>0.98270000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY24" s="1">
+        <f t="shared" si="0"/>
+        <v>103.36599999999987</v>
+      </c>
+    </row>
+    <row r="25" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -8577,8 +8898,12 @@
       <c r="CX25" s="7">
         <v>0.5857</v>
       </c>
-    </row>
-    <row r="26" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY25" s="1">
+        <f t="shared" si="0"/>
+        <v>61.606000000000058</v>
+      </c>
+    </row>
+    <row r="26" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
@@ -8882,8 +9207,12 @@
       <c r="CX26" s="7">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY26" s="1">
+        <f t="shared" si="0"/>
+        <v>56.871000000000066</v>
+      </c>
+    </row>
+    <row r="27" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
@@ -9187,8 +9516,12 @@
       <c r="CX27" s="7">
         <v>0.95740000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY27" s="1">
+        <f t="shared" si="0"/>
+        <v>100.70799999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
@@ -9492,8 +9825,12 @@
       <c r="CX28" s="7">
         <v>1.5632999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY28" s="1">
+        <f t="shared" si="0"/>
+        <v>164.43899999999979</v>
+      </c>
+    </row>
+    <row r="29" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
@@ -9797,8 +10134,12 @@
       <c r="CX29" s="7">
         <v>0.16819999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY29" s="1">
+        <f t="shared" si="0"/>
+        <v>17.696000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -10102,8 +10443,12 @@
       <c r="CX30" s="7">
         <v>1.5255000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY30" s="1">
+        <f t="shared" si="0"/>
+        <v>160.46700000000018</v>
+      </c>
+    </row>
+    <row r="31" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>40</v>
       </c>
@@ -10407,8 +10752,12 @@
       <c r="CX31" s="7">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY31" s="1">
+        <f t="shared" si="0"/>
+        <v>56.871000000000066</v>
+      </c>
+    </row>
+    <row r="32" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
@@ -10712,8 +11061,12 @@
       <c r="CX32" s="7">
         <v>0.29289999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY32" s="1">
+        <f t="shared" si="0"/>
+        <v>30.806000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
@@ -11017,8 +11370,12 @@
       <c r="CX33" s="7">
         <v>0.1507</v>
       </c>
-    </row>
-    <row r="34" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY33" s="1">
+        <f t="shared" si="0"/>
+        <v>15.850000000000014</v>
+      </c>
+    </row>
+    <row r="34" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
@@ -11322,8 +11679,12 @@
       <c r="CX34" s="7">
         <v>0.63500000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY34" s="1">
+        <f t="shared" si="0"/>
+        <v>66.791000000000068</v>
+      </c>
+    </row>
+    <row r="35" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
@@ -11627,8 +11988,12 @@
       <c r="CX35" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY35" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
@@ -11932,8 +12297,12 @@
       <c r="CX36" s="7">
         <v>0.54059999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY36" s="1">
+        <f t="shared" si="0"/>
+        <v>56.871000000000066</v>
+      </c>
+    </row>
+    <row r="37" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
@@ -12237,8 +12606,12 @@
       <c r="CX37" s="7">
         <v>1.1808000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY37" s="1">
+        <f t="shared" si="0"/>
+        <v>124.20499999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
@@ -12542,8 +12915,12 @@
       <c r="CX38" s="7">
         <v>0.8236</v>
       </c>
-    </row>
-    <row r="39" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY38" s="1">
+        <f t="shared" si="0"/>
+        <v>86.635000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>48</v>
       </c>
@@ -12847,8 +13224,12 @@
       <c r="CX39" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY39" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="40" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
@@ -13152,8 +13533,12 @@
       <c r="CX40" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="41" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY40" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="41" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
@@ -13457,8 +13842,12 @@
       <c r="CX41" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY41" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="42" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
@@ -13762,8 +14151,12 @@
       <c r="CX42" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY42" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="43" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>52</v>
       </c>
@@ -14067,8 +14460,12 @@
       <c r="CX43" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY43" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="44" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>53</v>
       </c>
@@ -14372,8 +14769,12 @@
       <c r="CX44" s="7">
         <v>0.87150000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY44" s="1">
+        <f t="shared" si="0"/>
+        <v>91.670000000000087</v>
+      </c>
+    </row>
+    <row r="45" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
@@ -14677,8 +15078,12 @@
       <c r="CX45" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY45" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="46" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>55</v>
       </c>
@@ -14982,8 +15387,12 @@
       <c r="CX46" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY46" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="47" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
@@ -15287,8 +15696,12 @@
       <c r="CX47" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY47" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="48" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>57</v>
       </c>
@@ -15592,8 +16005,12 @@
       <c r="CX48" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY48" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="49" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
@@ -15897,8 +16314,12 @@
       <c r="CX49" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="50" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY49" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="50" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>59</v>
       </c>
@@ -16202,8 +16623,12 @@
       <c r="CX50" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="51" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY50" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="51" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>60</v>
       </c>
@@ -16507,8 +16932,12 @@
       <c r="CX51" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY51" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="52" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>61</v>
       </c>
@@ -16812,8 +17241,12 @@
       <c r="CX52" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY52" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="53" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>62</v>
       </c>
@@ -17117,8 +17550,12 @@
       <c r="CX53" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY53" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="54" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
@@ -17422,8 +17859,12 @@
       <c r="CX54" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="55" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY54" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="55" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>64</v>
       </c>
@@ -17727,8 +18168,12 @@
       <c r="CX55" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY55" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="56" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>65</v>
       </c>
@@ -18032,8 +18477,12 @@
       <c r="CX56" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY56" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="57" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>66</v>
       </c>
@@ -18337,8 +18786,12 @@
       <c r="CX57" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY57" s="1">
+        <f t="shared" si="0"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="58" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>67</v>
       </c>
@@ -18642,8 +19095,12 @@
       <c r="CX58" s="7">
         <v>1.4078999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY58" s="1">
+        <f t="shared" si="0"/>
+        <v>148.09900000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
@@ -18947,8 +19404,12 @@
       <c r="CX59" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY59" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="60" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>69</v>
       </c>
@@ -19252,8 +19713,12 @@
       <c r="CX60" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY60" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="61" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>70</v>
       </c>
@@ -19557,8 +20022,12 @@
       <c r="CX61" s="7">
         <v>0.81089999999999995</v>
       </c>
-    </row>
-    <row r="62" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY61" s="1">
+        <f t="shared" si="0"/>
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>71</v>
       </c>
@@ -19862,8 +20331,12 @@
       <c r="CX62" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="63" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY62" s="1">
+        <f t="shared" si="0"/>
+        <v>92.561999999999927</v>
+      </c>
+    </row>
+    <row r="63" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>72</v>
       </c>
@@ -20167,8 +20640,12 @@
       <c r="CX63" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="64" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY63" s="1">
+        <f t="shared" si="0"/>
+        <v>92.561999999999927</v>
+      </c>
+    </row>
+    <row r="64" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
@@ -20472,8 +20949,12 @@
       <c r="CX64" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY64" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="65" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>74</v>
       </c>
@@ -20777,8 +21258,12 @@
       <c r="CX65" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY65" s="1">
+        <f t="shared" si="0"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="66" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>75</v>
       </c>
@@ -21082,8 +21567,12 @@
       <c r="CX66" s="7">
         <v>0.98270000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY66" s="1">
+        <f t="shared" si="0"/>
+        <v>103.36599999999987</v>
+      </c>
+    </row>
+    <row r="67" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>76</v>
       </c>
@@ -21387,8 +21876,12 @@
       <c r="CX67" s="7">
         <v>0.98270000000000002</v>
       </c>
-    </row>
-    <row r="68" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY67" s="1">
+        <f t="shared" si="0"/>
+        <v>103.36599999999987</v>
+      </c>
+    </row>
+    <row r="68" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>77</v>
       </c>
@@ -21692,8 +22185,12 @@
       <c r="CX68" s="7">
         <v>0.98270000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY68" s="1">
+        <f t="shared" ref="CY68:CY126" si="1">SUM(C68:CX68)</f>
+        <v>103.36599999999987</v>
+      </c>
+    </row>
+    <row r="69" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>78</v>
       </c>
@@ -21997,8 +22494,12 @@
       <c r="CX69" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="70" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY69" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="70" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>79</v>
       </c>
@@ -22302,8 +22803,12 @@
       <c r="CX70" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="71" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY70" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="71" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>80</v>
       </c>
@@ -22607,8 +23112,12 @@
       <c r="CX71" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY71" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="72" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>81</v>
       </c>
@@ -22912,8 +23421,12 @@
       <c r="CX72" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="73" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY72" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="73" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>82</v>
       </c>
@@ -23217,8 +23730,12 @@
       <c r="CX73" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="74" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY73" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="74" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>83</v>
       </c>
@@ -23522,8 +24039,12 @@
       <c r="CX74" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY74" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="75" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>84</v>
       </c>
@@ -23827,8 +24348,12 @@
       <c r="CX75" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY75" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="76" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>85</v>
       </c>
@@ -24132,8 +24657,12 @@
       <c r="CX76" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY76" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="77" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>86</v>
       </c>
@@ -24437,8 +24966,12 @@
       <c r="CX77" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="78" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY77" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="78" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>87</v>
       </c>
@@ -24742,8 +25275,12 @@
       <c r="CX78" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY78" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="79" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>88</v>
       </c>
@@ -25047,8 +25584,12 @@
       <c r="CX79" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY79" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="80" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>89</v>
       </c>
@@ -25352,8 +25893,12 @@
       <c r="CX80" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="81" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY80" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="81" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
         <v>90</v>
       </c>
@@ -25657,8 +26202,12 @@
       <c r="CX81" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY81" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="82" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
         <v>91</v>
       </c>
@@ -25962,8 +26511,12 @@
       <c r="CX82" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY82" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="83" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
         <v>92</v>
       </c>
@@ -26267,8 +26820,12 @@
       <c r="CX83" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY83" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="84" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
         <v>93</v>
       </c>
@@ -26572,8 +27129,12 @@
       <c r="CX84" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY84" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="85" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
         <v>94</v>
       </c>
@@ -26877,8 +27438,12 @@
       <c r="CX85" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="86" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY85" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="86" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>95</v>
       </c>
@@ -27182,8 +27747,12 @@
       <c r="CX86" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY86" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="87" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
         <v>96</v>
       </c>
@@ -27487,8 +28056,12 @@
       <c r="CX87" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY87" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="88" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>97</v>
       </c>
@@ -27792,8 +28365,12 @@
       <c r="CX88" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY88" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="89" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>98</v>
       </c>
@@ -28097,8 +28674,12 @@
       <c r="CX89" s="7">
         <v>0.89119999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY89" s="1">
+        <f t="shared" si="1"/>
+        <v>93.746999999999971</v>
+      </c>
+    </row>
+    <row r="90" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>99</v>
       </c>
@@ -28402,8 +28983,12 @@
       <c r="CX90" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="91" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY90" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="91" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
         <v>100</v>
       </c>
@@ -28707,8 +29292,12 @@
       <c r="CX91" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="92" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY91" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="92" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>101</v>
       </c>
@@ -29012,8 +29601,12 @@
       <c r="CX92" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="93" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY92" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="93" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
         <v>102</v>
       </c>
@@ -29317,8 +29910,12 @@
       <c r="CX93" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY93" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="94" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>103</v>
       </c>
@@ -29622,8 +30219,12 @@
       <c r="CX94" s="7">
         <v>0.70530000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY94" s="1">
+        <f t="shared" si="1"/>
+        <v>74.194999999999922</v>
+      </c>
+    </row>
+    <row r="95" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
         <v>104</v>
       </c>
@@ -29927,8 +30528,12 @@
       <c r="CX95" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="96" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY95" s="1">
+        <f t="shared" si="1"/>
+        <v>92.561999999999927</v>
+      </c>
+    </row>
+    <row r="96" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
         <v>105</v>
       </c>
@@ -30232,8 +30837,12 @@
       <c r="CX96" s="7">
         <v>1.2277</v>
       </c>
-    </row>
-    <row r="97" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY96" s="1">
+        <f t="shared" si="1"/>
+        <v>129.13899999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
         <v>106</v>
       </c>
@@ -30537,8 +31146,12 @@
       <c r="CX97" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="98" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY97" s="1">
+        <f t="shared" si="1"/>
+        <v>92.561999999999927</v>
+      </c>
+    </row>
+    <row r="98" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>107</v>
       </c>
@@ -30842,8 +31455,12 @@
       <c r="CX98" s="7">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="99" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY98" s="1">
+        <f t="shared" si="1"/>
+        <v>92.561999999999927</v>
+      </c>
+    </row>
+    <row r="99" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
         <v>108</v>
       </c>
@@ -31147,8 +31764,12 @@
       <c r="CX99" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY99" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
         <v>109</v>
       </c>
@@ -31452,8 +32073,12 @@
       <c r="CX100" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY100" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B101" s="2" t="s">
         <v>110</v>
       </c>
@@ -31757,8 +32382,12 @@
       <c r="CX101" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="102" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY101" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>111</v>
       </c>
@@ -32062,8 +32691,12 @@
       <c r="CX102" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY102" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>112</v>
       </c>
@@ -32367,8 +33000,12 @@
       <c r="CX103" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY103" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>113</v>
       </c>
@@ -32672,8 +33309,12 @@
       <c r="CX104" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="105" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY104" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B105" s="2" t="s">
         <v>114</v>
       </c>
@@ -32977,8 +33618,12 @@
       <c r="CX105" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY105" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>115</v>
       </c>
@@ -33282,8 +33927,12 @@
       <c r="CX106" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY106" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B107" s="2" t="s">
         <v>116</v>
       </c>
@@ -33587,8 +34236,12 @@
       <c r="CX107" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY107" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="108" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B108" s="2" t="s">
         <v>117</v>
       </c>
@@ -33892,8 +34545,12 @@
       <c r="CX108" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY108" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="109" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>118</v>
       </c>
@@ -34197,8 +34854,12 @@
       <c r="CX109" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="110" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY109" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>119</v>
       </c>
@@ -34502,8 +35163,12 @@
       <c r="CX110" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY110" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -34807,8 +35472,12 @@
       <c r="CX111" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY111" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>121</v>
       </c>
@@ -35112,8 +35781,12 @@
       <c r="CX112" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY112" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>122</v>
       </c>
@@ -35417,8 +36090,12 @@
       <c r="CX113" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY113" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="114" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
         <v>123</v>
       </c>
@@ -35722,8 +36399,12 @@
       <c r="CX114" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="115" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY114" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B115" s="2" t="s">
         <v>124</v>
       </c>
@@ -36027,8 +36708,12 @@
       <c r="CX115" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="116" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY115" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>125</v>
       </c>
@@ -36332,8 +37017,12 @@
       <c r="CX116" s="7">
         <v>1.0982000000000001</v>
       </c>
-    </row>
-    <row r="117" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY116" s="1">
+        <f t="shared" si="1"/>
+        <v>115.51500000000013</v>
+      </c>
+    </row>
+    <row r="117" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>126</v>
       </c>
@@ -36637,8 +37326,12 @@
       <c r="CX117" s="7">
         <v>1.0982000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY117" s="1">
+        <f t="shared" si="1"/>
+        <v>115.51500000000013</v>
+      </c>
+    </row>
+    <row r="118" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>127</v>
       </c>
@@ -36942,8 +37635,12 @@
       <c r="CX118" s="7">
         <v>1.3319000000000001</v>
       </c>
-    </row>
-    <row r="119" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY118" s="1">
+        <f t="shared" si="1"/>
+        <v>140.10299999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B119" s="2" t="s">
         <v>128</v>
       </c>
@@ -37247,8 +37944,12 @@
       <c r="CX119" s="7">
         <v>1.3319000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY119" s="1">
+        <f t="shared" si="1"/>
+        <v>140.10299999999995</v>
+      </c>
+    </row>
+    <row r="120" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B120" s="2" t="s">
         <v>129</v>
       </c>
@@ -37552,8 +38253,12 @@
       <c r="CX120" s="7">
         <v>1.3319000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY120" s="1">
+        <f t="shared" si="1"/>
+        <v>140.10299999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B121" s="2" t="s">
         <v>130</v>
       </c>
@@ -37857,8 +38562,12 @@
       <c r="CX121" s="7">
         <v>1.3319000000000001</v>
       </c>
-    </row>
-    <row r="122" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY121" s="1">
+        <f t="shared" si="1"/>
+        <v>140.10299999999995</v>
+      </c>
+    </row>
+    <row r="122" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B122" s="2" t="s">
         <v>131</v>
       </c>
@@ -38162,8 +38871,12 @@
       <c r="CX122" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY122" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B123" s="2" t="s">
         <v>132</v>
       </c>
@@ -38467,8 +39180,12 @@
       <c r="CX123" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY123" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B124" s="2" t="s">
         <v>133</v>
       </c>
@@ -38772,8 +39489,12 @@
       <c r="CX124" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY124" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>134</v>
       </c>
@@ -39077,8 +39798,12 @@
       <c r="CX125" s="7">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="126" spans="2:102" x14ac:dyDescent="0.3">
+      <c r="CY125" s="1">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="2:103" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>135</v>
       </c>
@@ -39382,9 +40107,13 @@
       <c r="CX126" s="10">
         <v>1.0896999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="2:102" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="2:102" x14ac:dyDescent="0.3"/>
+      <c r="CY126" s="11">
+        <f t="shared" si="1"/>
+        <v>114.62299999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="2:103" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="2:103" x14ac:dyDescent="0.3"/>
     <row r="129" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -39393,7 +40122,2563 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDDF092-E6F4-4C34-8F3E-45F48EFD5C28}">
+  <dimension ref="B2:B172"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650AC74E-1114-4938-BD88-C012A842FCC2}">
+  <dimension ref="B2:B171"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5E6126-0009-48A5-A4F5-B1DA8CB9CAFE}">
+  <dimension ref="B2:C102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C50">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>231</v>
+      </c>
+      <c r="C97">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>233</v>
+      </c>
+      <c r="C99">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102">
+        <f>SUM(C2:C101)</f>
+        <v>193.99999999999983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F598E1B4-2DCB-4D68-83CE-5A97AAF32F92}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
